--- a/medicine/Premiers secours et secourisme/Sauvetage_sportif/Sauvetage_sportif.xlsx
+++ b/medicine/Premiers secours et secourisme/Sauvetage_sportif/Sauvetage_sportif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sauvetage sportif est né en Australie. Il est décrit comme un sport ludique et varié mais aussi une activité citoyenne qui peut être pratiquée par tous et à tout âge. Celui qui pratique ce sport devient autonome et responsable en milieu aquatique. Il saura nager, se sauver et sauver les autres.
@@ -516,9 +528,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sauvetage côtier sportif nous vient d'Australie où il est connu sous le nom de « Surf Life Saving »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sauvetage côtier sportif nous vient d'Australie où il est connu sous le nom de « Surf Life Saving ».
 Son origine remonte à septembre 1902, Manly Beach. À cette époque se baigner à l'océan pendant la journée était un acte interdit et puni par la loi. Malgré cela des personnes comme William Gocher ont outrepassé cette loi et par leurs actions, ils ont ainsi forcé le gouvernement de l'époque à autoriser la baignade durant la journée. Petit à petit cette activité est devenue un passe temps national.
 Cependant l'océan a très rapidement révélé ses dangers, et des petits groupes de bénévoles expérimentés se sont organisés afin de porter secours aux personnes. C'est le début des clubs de sauvetage côtier au sein desquels l'entraînement fut très vite considéré comme un sport. C'est en effet à partir de 1906 qu'on retrace les premières rencontres de sauveteurs à Bondi Beach (Sydney).
 Comme les clubs grandissaient en taille et en nombre, la nécessité de créer un organisme ayant pour but de récolter des fonds ainsi que des aides des autorités locales est devenue une priorité. Le 18 octobre 1907 est formé la New South Wales Surf Bathing Association, qui deviendra plus tard la Surf Life Saving Association of Australia pour devenir enfin en 1991 Surf Life Saving Australia, la fédération Australienne actuellement en place.
@@ -551,7 +565,9 @@
           <t>Développement international</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En novembre 1956, les associations nationales de sauvetage côtier d'Australie, Nouvelle-Zélande, Afrique du Sud, Ceylan, Hawaii, Grande-Bretagne et des États-Unis forment l'International Council of Surf Life Saving (I.C.S.L.S.).
 En 1971, un congrès est tenu à Sydney, lors duquel tous les membres de l'I.C.S.L.S. fondent une nouvelle organisation internationale appelée World Life Saving (W.L.S.).
@@ -584,7 +600,9 @@
           <t>Historique du sauvetage côtier sportif en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que des compétitions en mer aient été organisées avant cette date, c'est en été 1990 qu'a lieu la première Coupe de France de sauvetage côtier à Lacanau, Hossegor et Biarritz. Ces épreuves, organisées par l'Association des Sauveteurs Professionnels de la Côte Aquitaine à l'occasion des étapes du circuit professionnel de surf, consistaient en un relais de quatre sauveteurs par équipe, chacun effectuant une course/nage/course avec des palmes.
 À la suite d'une rencontre entre le sauveteur australien Adam Sambrook (Gold Coast) et Eric Petron en été 1992, un échange professionnel fut envisagé avec l'aide de Gilles Bouvier à La Jenny dans la commune de Le Porge en Gironde. David Shields (Gold Coast) fut le premier Australien à travailler en France en été 1993. Parallèlement à ce début d'échange, Adam Sambrook et David Shields envoyèrent par conteneur du matériel qu'on avait encore jamais vu en France : six planches de sauvetage côtier, un kayak de sauvetage côtier et six bouées tubes arrivés à Bordeaux en septembre 1993.
@@ -617,7 +635,9 @@
           <t>Pratique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sauvetage côtier peut se pratiquer sur lac, rivière, étang, océan, mer… À partir du moment ou celui-ci ne présente pas de danger pour les apprenants. Pour commencer la pratique il vaut mieux s’acclimater au milieu et au matériel, sur un plan d’eau calme. Surtout pour le surf ski.
 Au fur et à mesure de l’apprentissage l’apprenant peut évoluer dans des conditions variables. L’intérêt à long terme, est de pouvoir pratiquer sur tout type de plan d’eau (calme, venté, avec des vagues…).
@@ -650,9 +670,11 @@
           <t>Épreuves</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le Sauvetage Sportif se caractérise par deux spécialités :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Sauvetage Sportif se caractérise par deux spécialités :
 Le sauvetage en eau plate
 Le sauvetage côtier.
 La Fédération française de sauvetage et de secourisme a pour devise : « préserver et sauver ».
@@ -671,8 +693,43 @@
 Des championnats du monde sont organisés tous les deux ans avec quelques nations parmi les 113 membres de l’I.L.S. (International Life Saving). Ils concernent les seniors (par nation et par club) et les masters (de 5 ans en 5 ans à partir de 30 ans). 
 L'Australie, pays d'origine de ce sport, connaît un championnat national aussi important que le football en Europe. L'hémisphère sud compte là-bas déjà une multitude de sportifs professionnels répartis dans des clubs de sauvetage installés sur chaque plage locale. 
 Des magazines spécialisés relatent leurs exploits et les chaînes de télévisions diffusent les compétitions sur les chaînes nationales tandis que de grandes sociétés communiquent ce sport énergique et mordant.
-Les épreuves en eau plate
-Le sauvetage en eau plate représente l’ensemble des épreuves sportives se pratiquant en piscine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épreuves</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les épreuves en eau plate</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le sauvetage en eau plate représente l’ensemble des épreuves sportives se pratiquant en piscine.
 On dénombre six épreuves individuelles et cinq épreuves d'équipe. Le déroulement des épreuves se mesure en temps : les huit meilleures réalisations chronos lors des séries qualificatives donnent accès à la finale des épreuves en eau plate. 
 Il existe là aussi non seulement la recherche de la meilleure place mais aussi la recherche de la meilleure performance chronométrique (meilleure performance, records de France, records d’Europe, du monde...)
 En individuel : 
@@ -687,9 +744,43 @@
 Relais 4 × 25 m mannequin : quatre  nageurs se relayent sur 25 m et remorquent un mannequin en surface.
 Relais 4 × 50 m bouée tube : l'équipe se compose de quatre  nageurs. Le premier part en 50 m nage libre, le second en 50 m nage libre avec palmes, le troisième en 50 m nage libre avec bouée tube. Le quatrième, palmé reçoit le harnais et part sur 50 m tirant derrière lui le troisième accroché. Celui-ci ne s'aidant que des jambes.
 Relais lancer de corde (Line Throw) : cette épreuve est chronométrée, un sauveteur lance une corde à un membre victime de son équipe situé dans l'eau à approximativement 12,5 m et le tire vers le mur d'arrivée de la piscine.
-SERC : épreuve de simulation de sauvetage, qui propose à une équipe de quatre sauveteurs de résoudre différentes situations de détresse et ce dans un temps limite.
-Les épreuves côtières
-Ces spécialités sont inspirées du sauvetage côtier professionnel et de la volonté de « sauver mieux et plus vite ». Le sauvetage côtier regroupe les épreuves se pratiquant sur sable et sur plan d'eau (mer, océan, lac). On dénombre sept épreuves individuelles et quatre épreuves par équipe sous forme de relais.
+SERC : épreuve de simulation de sauvetage, qui propose à une équipe de quatre sauveteurs de résoudre différentes situations de détresse et ce dans un temps limite.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épreuves</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les épreuves côtières</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ces spécialités sont inspirées du sauvetage côtier professionnel et de la volonté de « sauver mieux et plus vite ». Le sauvetage côtier regroupe les épreuves se pratiquant sur sable et sur plan d'eau (mer, océan, lac). On dénombre sept épreuves individuelles et quatre épreuves par équipe sous forme de relais.
 Individuel : 
 Course à pied (Sprint) : un sauveteur court sur une distance de 90 m sur le sable.
 Éventuellement 2 km course : course de 2 km sur sable.
@@ -711,68 +802,109 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sauvetage_sportif</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sauvetage_sportif</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Compétitions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Internationales
-Jeux mondiaux
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Internationales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jeux mondiaux
 Championnat du monde de sauvetage sportif
-Arena Rescue
-Nationales
-Championnat de France de Sauvetage Sportif
+Arena Rescue</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Compétitions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nationales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Championnat de France de Sauvetage Sportif
 Championnat de France UNSS de Sauvetage Sportif
 Jeux du Québec (2014)</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sauvetage_sportif</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sauvetage_sportif</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sauvetage_sportif</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>L'École Nationale de Sauvetage (ENS)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>La Fédération Française de Sauvetage et de Secourisme a mis en place une École Nationale de Sauvetage (E.N.S.) pour garantir un enseignement de qualité, en toute sécurité par des encadrants aux compétences reconnues.
 Le programme E.N.S. : 
